--- a/final_data_pipeline/output/325180_elec_options.xlsx
+++ b/final_data_pipeline/output/325180_elec_options.xlsx
@@ -4369,7 +4369,7 @@
         <v>224</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -4467,7 +4467,7 @@
         <v>223</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4562,7 +4562,7 @@
         <v>224</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4660,7 +4660,7 @@
         <v>223</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -6311,7 +6311,7 @@
         <v>224</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -6406,7 +6406,7 @@
         <v>224</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6504,7 +6504,7 @@
         <v>224</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6602,7 +6602,7 @@
         <v>223</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6700,7 +6700,7 @@
         <v>223</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6798,7 +6798,7 @@
         <v>223</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6896,7 +6896,7 @@
         <v>223</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6994,7 +6994,7 @@
         <v>224</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -7870,7 +7870,7 @@
         <v>224</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7965,7 +7965,7 @@
         <v>224</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -8063,7 +8063,7 @@
         <v>223</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -8161,7 +8161,7 @@
         <v>223</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -8259,7 +8259,7 @@
         <v>224</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -8357,7 +8357,7 @@
         <v>223</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -8452,7 +8452,7 @@
         <v>224</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -8550,7 +8550,7 @@
         <v>223</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -10982,7 +10982,7 @@
         <v>224</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -11077,7 +11077,7 @@
         <v>224</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -11175,7 +11175,7 @@
         <v>223</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -11273,7 +11273,7 @@
         <v>223</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -12149,7 +12149,7 @@
         <v>223</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE114">
         <v>8000</v>
@@ -12244,7 +12244,7 @@
         <v>224</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE115">
         <v>8000</v>
@@ -12342,7 +12342,7 @@
         <v>223</v>
       </c>
       <c r="AD116">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE116">
         <v>8000</v>
@@ -12440,7 +12440,7 @@
         <v>224</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -14869,7 +14869,7 @@
         <v>224</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -14964,7 +14964,7 @@
         <v>224</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE143">
         <v>8000</v>
@@ -15062,7 +15062,7 @@
         <v>224</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE144">
         <v>8000</v>
@@ -15160,7 +15160,7 @@
         <v>223</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE145">
         <v>8000</v>
@@ -15258,7 +15258,7 @@
         <v>224</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -15356,7 +15356,7 @@
         <v>223</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -15454,7 +15454,7 @@
         <v>223</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -15552,7 +15552,7 @@
         <v>223</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -15650,7 +15650,7 @@
         <v>223</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -15748,7 +15748,7 @@
         <v>223</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -15843,7 +15843,7 @@
         <v>224</v>
       </c>
       <c r="AD152">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE152">
         <v>8000</v>
@@ -15941,7 +15941,7 @@
         <v>224</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE153">
         <v>8000</v>
@@ -16036,7 +16036,7 @@
         <v>224</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE154">
         <v>8000</v>
@@ -16134,7 +16134,7 @@
         <v>223</v>
       </c>
       <c r="AD155">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE155">
         <v>8000</v>
@@ -16232,7 +16232,7 @@
         <v>224</v>
       </c>
       <c r="AD156">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE156">
         <v>8000</v>
@@ -16330,7 +16330,7 @@
         <v>223</v>
       </c>
       <c r="AD157">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE157">
         <v>8000</v>
@@ -16817,7 +16817,7 @@
         <v>224</v>
       </c>
       <c r="AD162">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE162">
         <v>8000</v>
@@ -16912,7 +16912,7 @@
         <v>224</v>
       </c>
       <c r="AD163">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE163">
         <v>8000</v>
@@ -17010,7 +17010,7 @@
         <v>223</v>
       </c>
       <c r="AD164">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE164">
         <v>8000</v>
@@ -17108,7 +17108,7 @@
         <v>223</v>
       </c>
       <c r="AD165">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE165">
         <v>8000</v>
@@ -19540,7 +19540,7 @@
         <v>223</v>
       </c>
       <c r="AD190">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE190">
         <v>8000</v>
@@ -19638,7 +19638,7 @@
         <v>223</v>
       </c>
       <c r="AD191">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE191">
         <v>8000</v>
@@ -19736,7 +19736,7 @@
         <v>224</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE192">
         <v>8000</v>
@@ -19831,7 +19831,7 @@
         <v>224</v>
       </c>
       <c r="AD193">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE193">
         <v>8000</v>
@@ -20315,7 +20315,7 @@
         <v>224</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE198">
         <v>8000</v>
@@ -20413,7 +20413,7 @@
         <v>223</v>
       </c>
       <c r="AD199">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE199">
         <v>8000</v>
@@ -20511,7 +20511,7 @@
         <v>223</v>
       </c>
       <c r="AD200">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE200">
         <v>8000</v>
@@ -20609,7 +20609,7 @@
         <v>224</v>
       </c>
       <c r="AD201">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE201">
         <v>8000</v>
@@ -20710,7 +20710,7 @@
         <v>224</v>
       </c>
       <c r="AD202">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE202">
         <v>8000</v>
@@ -20808,7 +20808,7 @@
         <v>223</v>
       </c>
       <c r="AD203">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE203">
         <v>8000</v>
@@ -20903,7 +20903,7 @@
         <v>224</v>
       </c>
       <c r="AD204">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE204">
         <v>8000</v>
@@ -21001,7 +21001,7 @@
         <v>223</v>
       </c>
       <c r="AD205">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE205">
         <v>8000</v>
@@ -21096,7 +21096,7 @@
         <v>224</v>
       </c>
       <c r="AD206">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE206">
         <v>8000</v>
@@ -21194,7 +21194,7 @@
         <v>223</v>
       </c>
       <c r="AD207">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE207">
         <v>8000</v>
@@ -21292,7 +21292,7 @@
         <v>223</v>
       </c>
       <c r="AD208">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE208">
         <v>8000</v>
@@ -21390,7 +21390,7 @@
         <v>224</v>
       </c>
       <c r="AD209">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE209">
         <v>8000</v>
@@ -21488,7 +21488,7 @@
         <v>224</v>
       </c>
       <c r="AD210">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE210">
         <v>8000</v>
@@ -21586,7 +21586,7 @@
         <v>224</v>
       </c>
       <c r="AD211">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE211">
         <v>8000</v>
@@ -21684,7 +21684,7 @@
         <v>224</v>
       </c>
       <c r="AD212">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE212">
         <v>8000</v>
@@ -21782,7 +21782,7 @@
         <v>224</v>
       </c>
       <c r="AD213">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE213">
         <v>8000</v>
@@ -21880,7 +21880,7 @@
         <v>224</v>
       </c>
       <c r="AD214">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE214">
         <v>8000</v>
@@ -21978,7 +21978,7 @@
         <v>224</v>
       </c>
       <c r="AD215">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE215">
         <v>8000</v>
@@ -22076,7 +22076,7 @@
         <v>224</v>
       </c>
       <c r="AD216">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE216">
         <v>8000</v>
@@ -22174,7 +22174,7 @@
         <v>224</v>
       </c>
       <c r="AD217">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE217">
         <v>8000</v>
@@ -22272,7 +22272,7 @@
         <v>224</v>
       </c>
       <c r="AD218">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE218">
         <v>8000</v>
@@ -22370,7 +22370,7 @@
         <v>223</v>
       </c>
       <c r="AD219">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE219">
         <v>8000</v>
@@ -22468,7 +22468,7 @@
         <v>223</v>
       </c>
       <c r="AD220">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE220">
         <v>8000</v>
@@ -22566,7 +22566,7 @@
         <v>223</v>
       </c>
       <c r="AD221">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE221">
         <v>8000</v>
@@ -22664,7 +22664,7 @@
         <v>223</v>
       </c>
       <c r="AD222">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE222">
         <v>8000</v>
@@ -22762,7 +22762,7 @@
         <v>223</v>
       </c>
       <c r="AD223">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE223">
         <v>8000</v>
@@ -22860,7 +22860,7 @@
         <v>223</v>
       </c>
       <c r="AD224">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE224">
         <v>8000</v>
@@ -22958,7 +22958,7 @@
         <v>223</v>
       </c>
       <c r="AD225">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE225">
         <v>8000</v>
@@ -23056,7 +23056,7 @@
         <v>223</v>
       </c>
       <c r="AD226">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE226">
         <v>8000</v>
@@ -23154,7 +23154,7 @@
         <v>223</v>
       </c>
       <c r="AD227">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE227">
         <v>8000</v>
@@ -23252,7 +23252,7 @@
         <v>223</v>
       </c>
       <c r="AD228">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE228">
         <v>8000</v>
@@ -23350,7 +23350,7 @@
         <v>223</v>
       </c>
       <c r="AD229">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE229">
         <v>8000</v>
@@ -23448,7 +23448,7 @@
         <v>223</v>
       </c>
       <c r="AD230">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE230">
         <v>8000</v>
@@ -23546,7 +23546,7 @@
         <v>224</v>
       </c>
       <c r="AD231">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE231">
         <v>8000</v>
@@ -23644,7 +23644,7 @@
         <v>224</v>
       </c>
       <c r="AD232">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE232">
         <v>8000</v>
@@ -23742,7 +23742,7 @@
         <v>224</v>
       </c>
       <c r="AD233">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE233">
         <v>8000</v>
@@ -23840,7 +23840,7 @@
         <v>223</v>
       </c>
       <c r="AD234">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE234">
         <v>8000</v>
@@ -23935,7 +23935,7 @@
         <v>224</v>
       </c>
       <c r="AD235">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE235">
         <v>8000</v>
@@ -24030,7 +24030,7 @@
         <v>224</v>
       </c>
       <c r="AD236">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE236">
         <v>8000</v>
@@ -24125,7 +24125,7 @@
         <v>224</v>
       </c>
       <c r="AD237">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE237">
         <v>8000</v>
@@ -24220,7 +24220,7 @@
         <v>224</v>
       </c>
       <c r="AD238">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE238">
         <v>8000</v>
@@ -24315,7 +24315,7 @@
         <v>224</v>
       </c>
       <c r="AD239">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE239">
         <v>8000</v>
@@ -24410,7 +24410,7 @@
         <v>224</v>
       </c>
       <c r="AD240">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE240">
         <v>8000</v>
@@ -24508,7 +24508,7 @@
         <v>223</v>
       </c>
       <c r="AD241">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE241">
         <v>8000</v>
@@ -24606,7 +24606,7 @@
         <v>223</v>
       </c>
       <c r="AD242">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE242">
         <v>8000</v>
@@ -24704,7 +24704,7 @@
         <v>223</v>
       </c>
       <c r="AD243">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE243">
         <v>8000</v>
@@ -24799,7 +24799,7 @@
         <v>224</v>
       </c>
       <c r="AD244">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE244">
         <v>8000</v>
@@ -24897,7 +24897,7 @@
         <v>223</v>
       </c>
       <c r="AD245">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE245">
         <v>8000</v>
@@ -24995,7 +24995,7 @@
         <v>223</v>
       </c>
       <c r="AD246">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE246">
         <v>8000</v>
@@ -25093,7 +25093,7 @@
         <v>223</v>
       </c>
       <c r="AD247">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE247">
         <v>8000</v>
@@ -25191,7 +25191,7 @@
         <v>223</v>
       </c>
       <c r="AD248">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE248">
         <v>8000</v>
@@ -25289,7 +25289,7 @@
         <v>223</v>
       </c>
       <c r="AD249">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE249">
         <v>8000</v>
@@ -25387,7 +25387,7 @@
         <v>223</v>
       </c>
       <c r="AD250">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE250">
         <v>8000</v>
@@ -25485,7 +25485,7 @@
         <v>223</v>
       </c>
       <c r="AD251">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE251">
         <v>8000</v>
@@ -25580,7 +25580,7 @@
         <v>224</v>
       </c>
       <c r="AD252">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE252">
         <v>8000</v>
@@ -25675,7 +25675,7 @@
         <v>224</v>
       </c>
       <c r="AD253">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE253">
         <v>8000</v>
@@ -25770,7 +25770,7 @@
         <v>224</v>
       </c>
       <c r="AD254">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE254">
         <v>8000</v>
@@ -25865,7 +25865,7 @@
         <v>224</v>
       </c>
       <c r="AD255">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE255">
         <v>8000</v>
@@ -25963,7 +25963,7 @@
         <v>223</v>
       </c>
       <c r="AD256">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE256">
         <v>8000</v>
@@ -26058,7 +26058,7 @@
         <v>224</v>
       </c>
       <c r="AD257">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AE257">
         <v>8000</v>
@@ -26542,7 +26542,7 @@
         <v>224</v>
       </c>
       <c r="AD262">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE262">
         <v>8000</v>
@@ -26640,7 +26640,7 @@
         <v>224</v>
       </c>
       <c r="AD263">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE263">
         <v>8000</v>
@@ -26738,7 +26738,7 @@
         <v>223</v>
       </c>
       <c r="AD264">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE264">
         <v>8000</v>
@@ -26836,7 +26836,7 @@
         <v>223</v>
       </c>
       <c r="AD265">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE265">
         <v>8000</v>
@@ -26934,7 +26934,7 @@
         <v>224</v>
       </c>
       <c r="AD266">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE266">
         <v>8000</v>
@@ -27029,7 +27029,7 @@
         <v>224</v>
       </c>
       <c r="AD267">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE267">
         <v>8000</v>
@@ -27127,7 +27127,7 @@
         <v>223</v>
       </c>
       <c r="AD268">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE268">
         <v>8000</v>
@@ -27225,7 +27225,7 @@
         <v>223</v>
       </c>
       <c r="AD269">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE269">
         <v>8000</v>
@@ -32380,7 +32380,7 @@
         <v>224</v>
       </c>
       <c r="AD322">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE322">
         <v>8000</v>
@@ -32478,7 +32478,7 @@
         <v>223</v>
       </c>
       <c r="AD323">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE323">
         <v>8000</v>
@@ -32576,7 +32576,7 @@
         <v>223</v>
       </c>
       <c r="AD324">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE324">
         <v>8000</v>
@@ -32671,7 +32671,7 @@
         <v>224</v>
       </c>
       <c r="AD325">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE325">
         <v>8000</v>
@@ -32769,7 +32769,7 @@
         <v>224</v>
       </c>
       <c r="AD326">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE326">
         <v>8000</v>
@@ -32864,7 +32864,7 @@
         <v>224</v>
       </c>
       <c r="AD327">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE327">
         <v>8000</v>
@@ -32962,7 +32962,7 @@
         <v>223</v>
       </c>
       <c r="AD328">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE328">
         <v>8000</v>
@@ -33060,7 +33060,7 @@
         <v>223</v>
       </c>
       <c r="AD329">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE329">
         <v>8000</v>
@@ -33158,7 +33158,7 @@
         <v>223</v>
       </c>
       <c r="AD330">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE330">
         <v>8000</v>
@@ -33256,7 +33256,7 @@
         <v>224</v>
       </c>
       <c r="AD331">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE331">
         <v>8000</v>
@@ -33354,7 +33354,7 @@
         <v>224</v>
       </c>
       <c r="AD332">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE332">
         <v>8000</v>
@@ -33449,7 +33449,7 @@
         <v>224</v>
       </c>
       <c r="AD333">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE333">
         <v>8000</v>
@@ -33544,7 +33544,7 @@
         <v>224</v>
       </c>
       <c r="AD334">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE334">
         <v>8000</v>
@@ -33639,7 +33639,7 @@
         <v>224</v>
       </c>
       <c r="AD335">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE335">
         <v>8000</v>
@@ -33737,7 +33737,7 @@
         <v>223</v>
       </c>
       <c r="AD336">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE336">
         <v>8000</v>
@@ -33835,7 +33835,7 @@
         <v>223</v>
       </c>
       <c r="AD337">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE337">
         <v>8000</v>
@@ -33933,7 +33933,7 @@
         <v>224</v>
       </c>
       <c r="AD338">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE338">
         <v>8000</v>
@@ -34031,7 +34031,7 @@
         <v>223</v>
       </c>
       <c r="AD339">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE339">
         <v>8000</v>
@@ -34129,7 +34129,7 @@
         <v>223</v>
       </c>
       <c r="AD340">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE340">
         <v>8000</v>
@@ -34224,7 +34224,7 @@
         <v>224</v>
       </c>
       <c r="AD341">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE341">
         <v>8000</v>
@@ -34322,7 +34322,7 @@
         <v>224</v>
       </c>
       <c r="AD342">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE342">
         <v>8000</v>
@@ -34417,7 +34417,7 @@
         <v>224</v>
       </c>
       <c r="AD343">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE343">
         <v>8000</v>
@@ -34515,7 +34515,7 @@
         <v>223</v>
       </c>
       <c r="AD344">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE344">
         <v>8000</v>
@@ -34613,7 +34613,7 @@
         <v>223</v>
       </c>
       <c r="AD345">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE345">
         <v>8000</v>
@@ -34711,7 +34711,7 @@
         <v>223</v>
       </c>
       <c r="AD346">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE346">
         <v>8000</v>
@@ -34809,7 +34809,7 @@
         <v>223</v>
       </c>
       <c r="AD347">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE347">
         <v>8000</v>
@@ -34907,7 +34907,7 @@
         <v>223</v>
       </c>
       <c r="AD348">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE348">
         <v>8000</v>
@@ -35005,7 +35005,7 @@
         <v>224</v>
       </c>
       <c r="AD349">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE349">
         <v>8000</v>
@@ -37437,7 +37437,7 @@
         <v>224</v>
       </c>
       <c r="AD374">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE374">
         <v>8000</v>
@@ -37535,7 +37535,7 @@
         <v>223</v>
       </c>
       <c r="AD375">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE375">
         <v>8000</v>
@@ -37633,7 +37633,7 @@
         <v>223</v>
       </c>
       <c r="AD376">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE376">
         <v>8000</v>
@@ -37728,7 +37728,7 @@
         <v>224</v>
       </c>
       <c r="AD377">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE377">
         <v>8000</v>
@@ -37826,7 +37826,7 @@
         <v>223</v>
       </c>
       <c r="AD378">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE378">
         <v>8000</v>
@@ -37924,7 +37924,7 @@
         <v>223</v>
       </c>
       <c r="AD379">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE379">
         <v>8000</v>
@@ -38022,7 +38022,7 @@
         <v>224</v>
       </c>
       <c r="AD380">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE380">
         <v>8000</v>
@@ -38117,7 +38117,7 @@
         <v>224</v>
       </c>
       <c r="AD381">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE381">
         <v>8000</v>
@@ -38212,7 +38212,7 @@
         <v>224</v>
       </c>
       <c r="AD382">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE382">
         <v>8000</v>
@@ -38310,7 +38310,7 @@
         <v>223</v>
       </c>
       <c r="AD383">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE383">
         <v>8000</v>
@@ -38408,7 +38408,7 @@
         <v>224</v>
       </c>
       <c r="AD384">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE384">
         <v>8000</v>
@@ -38506,7 +38506,7 @@
         <v>223</v>
       </c>
       <c r="AD385">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE385">
         <v>8000</v>
@@ -40157,7 +40157,7 @@
         <v>224</v>
       </c>
       <c r="AD402">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE402">
         <v>8000</v>
@@ -40255,7 +40255,7 @@
         <v>223</v>
       </c>
       <c r="AD403">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE403">
         <v>8000</v>
@@ -40353,7 +40353,7 @@
         <v>223</v>
       </c>
       <c r="AD404">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE404">
         <v>8000</v>
@@ -40451,7 +40451,7 @@
         <v>224</v>
       </c>
       <c r="AD405">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE405">
         <v>8000</v>
@@ -40546,7 +40546,7 @@
         <v>224</v>
       </c>
       <c r="AD406">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE406">
         <v>8000</v>
@@ -40644,7 +40644,7 @@
         <v>224</v>
       </c>
       <c r="AD407">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE407">
         <v>8000</v>
@@ -40742,7 +40742,7 @@
         <v>223</v>
       </c>
       <c r="AD408">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE408">
         <v>8000</v>
@@ -40840,7 +40840,7 @@
         <v>223</v>
       </c>
       <c r="AD409">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE409">
         <v>8000</v>
@@ -40938,7 +40938,7 @@
         <v>223</v>
       </c>
       <c r="AD410">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE410">
         <v>8000</v>
@@ -41036,7 +41036,7 @@
         <v>223</v>
       </c>
       <c r="AD411">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE411">
         <v>8000</v>
@@ -41134,7 +41134,7 @@
         <v>223</v>
       </c>
       <c r="AD412">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE412">
         <v>8000</v>
@@ -41232,7 +41232,7 @@
         <v>223</v>
       </c>
       <c r="AD413">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE413">
         <v>8000</v>
@@ -41330,7 +41330,7 @@
         <v>223</v>
       </c>
       <c r="AD414">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE414">
         <v>8000</v>
@@ -41428,7 +41428,7 @@
         <v>224</v>
       </c>
       <c r="AD415">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE415">
         <v>8000</v>
@@ -41526,7 +41526,7 @@
         <v>224</v>
       </c>
       <c r="AD416">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE416">
         <v>8000</v>
@@ -41624,7 +41624,7 @@
         <v>224</v>
       </c>
       <c r="AD417">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE417">
         <v>8000</v>
@@ -41719,7 +41719,7 @@
         <v>224</v>
       </c>
       <c r="AD418">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE418">
         <v>8000</v>
@@ -41814,7 +41814,7 @@
         <v>224</v>
       </c>
       <c r="AD419">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE419">
         <v>8000</v>
@@ -41909,7 +41909,7 @@
         <v>224</v>
       </c>
       <c r="AD420">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE420">
         <v>8000</v>
@@ -42004,7 +42004,7 @@
         <v>224</v>
       </c>
       <c r="AD421">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE421">
         <v>8000</v>
@@ -42099,7 +42099,7 @@
         <v>224</v>
       </c>
       <c r="AD422">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE422">
         <v>8000</v>
@@ -42197,7 +42197,7 @@
         <v>224</v>
       </c>
       <c r="AD423">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE423">
         <v>8000</v>
@@ -42295,7 +42295,7 @@
         <v>224</v>
       </c>
       <c r="AD424">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE424">
         <v>8000</v>
@@ -42393,7 +42393,7 @@
         <v>223</v>
       </c>
       <c r="AD425">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE425">
         <v>8000</v>
@@ -42491,7 +42491,7 @@
         <v>223</v>
       </c>
       <c r="AD426">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE426">
         <v>8000</v>
@@ -42589,7 +42589,7 @@
         <v>223</v>
       </c>
       <c r="AD427">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE427">
         <v>8000</v>
@@ -42687,7 +42687,7 @@
         <v>223</v>
       </c>
       <c r="AD428">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE428">
         <v>8000</v>
@@ -42785,7 +42785,7 @@
         <v>223</v>
       </c>
       <c r="AD429">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE429">
         <v>8000</v>
@@ -42883,7 +42883,7 @@
         <v>223</v>
       </c>
       <c r="AD430">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE430">
         <v>8000</v>
@@ -42978,7 +42978,7 @@
         <v>224</v>
       </c>
       <c r="AD431">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE431">
         <v>8000</v>
@@ -43076,7 +43076,7 @@
         <v>223</v>
       </c>
       <c r="AD432">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE432">
         <v>8000</v>
@@ -43174,7 +43174,7 @@
         <v>224</v>
       </c>
       <c r="AD433">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="AE433">
         <v>8000</v>
